--- a/excel/勉強.xlsx
+++ b/excel/勉強.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\yotaro\与太郎の備忘録\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E6738-2B8E-4A64-A6ED-5CE0840355A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ruby" sheetId="3" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>googleアナリティクス</t>
     <phoneticPr fontId="1"/>
@@ -94,34 +95,668 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アナリティクスで計測の前に</t>
-    <rPh sb="8" eb="10">
-      <t>ケイソク</t>
+    <t>基本使用は無料！</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何の為に使うのか</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトにはサイトそれぞれの目的がある</t>
+    <rPh sb="16" eb="18">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ系なら商品を売る</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業サイトなら問い合わせ、など</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webマーケティングについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleアナリティクスを使用するなら、WEBマーケティングの基礎を学ぶ必要がある</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標を達成する為には、客の流れを把握する必要がある</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タメ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WEBマーケティングの基礎を学ぶ必要がある</t>
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>こう言った</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目的をどのくらい達成するか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目標</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>として定める</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>この目標を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コンバージョン(CV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と言う</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Googleアナリティクスで人の流れを把握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>し、</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>そのデータを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元にマークティングの知識で、目標達成を効率的にしていく</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標を達成する為の式</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標達成数＝客数×目標達成率</t>
+  </si>
+  <si>
+    <t>CV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVRとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVR＝目標達成数(CV)/客数</t>
+    <rPh sb="4" eb="6">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キャクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンバージョン(Conversion)、或いは成約数と言う</t>
+    <rPh sb="20" eb="21">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトやページによって何をCVとするかは様々</t>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サマザマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品購入、資料請求、会員登録、お問い合わせ数、など</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>サイトに来た人が、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サイトやページにとっての</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目標達成となる行動をとること</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目標達成数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のこと</t>
+    </r>
+    <rPh sb="0" eb="5">
+      <t>モクヒョウタッセイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目標達成率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のこと</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100人の客がいてCVR(成約率)が2％ならCVは2、と言うこと</t>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コンバージョン率(Conversion Rate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、或いは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成約率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と言う</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100人の客がいて成約数が2ならCVRは2％、と言うこと</t>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大切なのは</t>
+  </si>
+  <si>
+    <t>何が自分にとっての目標達成なのかを明確にする</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モクヒョウ</t>
+    </rPh>
     <rPh sb="11" eb="13">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを元に</t>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗したことを繰り返さず、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功したことを繰り返し、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少しずつでも目標の達成に近付いていくこと！</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チカヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーケティングにはフレームワークと言うものがある</t>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3C(スリーシー)とは</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +788,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +828,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +1148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -507,17 +1156,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -526,71 +1175,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:3" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="5" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A13" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E49" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E50" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E52" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="I36:M36"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -598,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -606,17 +1439,17 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,24 +1458,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/勉強.xlsx
+++ b/excel/勉強.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\yotaro\与太郎の備忘録\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E6738-2B8E-4A64-A6ED-5CE0840355A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruby" sheetId="3" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>googleアナリティクス</t>
     <phoneticPr fontId="1"/>
@@ -741,21 +740,502 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マーケティングにはフレームワークと言うものがある</t>
-    <rPh sb="17" eb="18">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3C(スリーシー)とは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場(Customer)、競合(Competitor)、自社(Company)の頭文字</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>カシラモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社は市場にどんな価値を提供出来るか？</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他社の特徴</t>
+    <rPh sb="0" eb="2">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーケティングの用語</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KBFとKSF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KBF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key Buying Factorsの略</t>
+    <rPh sb="19" eb="20">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購買の要因</t>
+    <rPh sb="0" eb="2">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入の決め手になる要因</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KSF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key Success Factorsの略</t>
+    <rPh sb="20" eb="21">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功の要因</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4Pとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品(Product)</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格(Price)</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流通(Place)</t>
+    <rPh sb="0" eb="2">
+      <t>リュウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロモーション(Promotin)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Cで立てた戦略と4Pの内容の整合性が取れているかが重要</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDCAサイクルとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Act</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>PDCAサイクルを使う時は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字を軸に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>して回すことが重要</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間、値段、ユーザー数、CVRなど</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleアナリティクスに登録</t>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のサイトを持っていない場合はデモアカウントを利用してGoogleアナリティクスがどんなものかを知ることが出来る</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デモアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のサイトで使用する場合</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずGoogleアナリティクスに登録してトラッキングIDを取得する</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleタグマネージャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計測用のタグをまとめて管理出来るツール</t>
+    <rPh sb="0" eb="3">
+      <t>ケイソクヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグマネージャが無いと、ページ毎に測定したい内容が異なる場合、それぞれ対応したコードを記述する必要がある</t>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグマネージャが有ると、ページに埋め込むコードは1種類でOK</t>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かい事はブラウザ上で設定出来る</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleアナリティクス、Webのリターゲティングタグ、など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色んなタグをまとめて管理出来る</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleタグマネージャの使い方</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナスニペット(計測用コード)を埋め込む</t>
+    <rPh sb="10" eb="13">
+      <t>ケイソクヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグマネージャの管理画面でタグの設定</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレビュー→公開</t>
+    <rPh sb="6" eb="8">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のアクセスを除外する設定も必要</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1148,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1156,17 +1636,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1175,156 +1655,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.7">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.7">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.7">
       <c r="B34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D36" s="4" t="s">
         <v>25</v>
       </c>
@@ -1339,84 +1819,309 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.7">
       <c r="C39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.7">
       <c r="E44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.7">
       <c r="F45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.7">
       <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.7">
       <c r="E49" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.7">
       <c r="E50" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.7">
       <c r="E51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.7">
       <c r="E52" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.7">
       <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D55" t="s">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="E56" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="D95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A99" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="C101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="D113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="D114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C117" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C120" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A123" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1439,17 +2144,17 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,24 +2163,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/勉強.xlsx
+++ b/excel/勉強.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\yotaro\与太郎の備忘録\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC5083-E03F-4FC3-8430-3EFD5D134EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ruby" sheetId="3" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>googleアナリティクス</t>
     <phoneticPr fontId="1"/>
@@ -760,56 +761,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>市場</t>
-    <rPh sb="0" eb="2">
-      <t>シジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>競合</t>
-    <rPh sb="0" eb="2">
-      <t>キョウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自社</t>
-    <rPh sb="0" eb="2">
-      <t>ジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自社は市場にどんな価値を提供出来るか？</t>
-    <rPh sb="0" eb="2">
-      <t>ジシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他社の特徴</t>
-    <rPh sb="0" eb="2">
-      <t>タシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マーケティングの用語</t>
     <rPh sb="8" eb="10">
       <t>ヨウゴ</t>
@@ -837,22 +788,6 @@
       <t>コウバイ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ヨウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入の決め手になる要因</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
       <t>ヨウイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1231,12 +1166,404 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>3C分析とは</t>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場(Customer)</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合(Competitor)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社(Company)</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場と競合他社を分析して、成功する為の要因(KSF)を見つけ、自社の戦略に活かす分析のこと</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>自社の製品やサービスを購買する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>潜在顧客を把握する(市場規模、市場の成長性、ニーズなど)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>セイチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>要は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外的(自社以外の)要因を分析して、成功する為にはどうするかを考える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>こと</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>分析して終わり、ではなく</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マーケティング戦略に活かすことが目的</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他社(ライバル企業)の特徴や競争状況を把握する</t>
+    <rPh sb="0" eb="2">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他社の強みや弱みだけではなく、市場の中で競争相手がどのくらいいるかなどを調べる</t>
+    <rPh sb="0" eb="2">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョウソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他社との比較によって、自社の相対的な強みや弱みが分かるようになる</t>
+    <rPh sb="0" eb="2">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ソウタイテキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社は市場にどんな価値を提供出来るか、と言うこと</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場分析、競合分析をした結果を元に自社の特徴を把握する</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場の中で他社と比べた時に、自社の強みだと思えるものがあれば、それが成功要因(KSF)になり得る</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が商品やサービスのこうにゅを決める時に重視する要素や判断基準</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,6 +1603,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1299,7 +1635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,6 +1650,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,7 +1967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1636,17 +1975,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,156 +1994,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:3" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.7">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D36" s="4" t="s">
         <v>25</v>
       </c>
@@ -1819,309 +2158,354 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E49" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.7">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E50" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.7">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.7">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E52" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.7">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="D55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="E56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="E57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="E59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="F60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="E61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="F62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="D64" t="s">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F79" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="E65" t="s">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F66" t="s">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D82" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F67" t="s">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E83" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F68" t="s">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E85" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="E69" t="s">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E87" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F70" t="s">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E90" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F71" t="s">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D93" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="D73" t="s">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="E74" t="s">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E96" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="E76" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E98" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="E78" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E100" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E81" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="D84" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D104" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="D86" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E105" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E87" t="s">
+    <row r="108" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E89" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B109" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E91" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E93" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B113" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="D95" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E96" t="s">
+    <row r="117" spans="1:4" ht="24" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A99" s="2" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B100" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C101" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B104" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C105" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D122" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A108" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D123" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B109" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B125" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B110" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B111" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C112" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="D113" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C129" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="D114" t="s">
+    <row r="132" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A132" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="B116" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="C117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="C118" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="C119" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="C120" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A123" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2144,17 +2528,17 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2163,24 +2547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
